--- a/output/fit_clients/fit_round_49.xlsx
+++ b/output/fit_clients/fit_round_49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8052635574.84541</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003288929465530237</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.364740336018599</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9165735817430326</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.364740336018599</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4728184748.294971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005897709819276553</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.883420568199</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8714470231191216</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.883420568199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5754095717.104565</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003992395837278902</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.557413395504583</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9286775052119066</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.557413395504583</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3537745703.255125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004266658703175392</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.913792223131216</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8023290825991557</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.913792223131216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6956340182.911033</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002086219068376888</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8720538725825601</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.461515724320178</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.147905422917546</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.461515724320178</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7613269772.960824</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001286252901522503</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.03413378265087622</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.165746339955937</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.3425655517654407</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.165746339955937</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6483000157.840397</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002609868817345937</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.508832088682392</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9181487095004444</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.508832088682392</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4825061561.60134</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004953372961225297</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9852304922921336</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.468291167086594</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.266177805551191</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.468291167086594</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4182745166.865132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00434656564343777</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.09844382021794063</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.013025287440473</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.0730235697160854</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.013025287440473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5176535279.765235</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001189375464674789</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.854208642501896</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7606462738756292</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.854208642501896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6590794050.680652</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001760536923093009</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.966287315514106</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9781311386941831</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.966287315514106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6702993415.227519</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004237642998403263</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5092973013306451</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.659008458313907</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9689168287172316</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.659008458313907</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5881320800.612436</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002621616531975537</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.370425941614609</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8686379532000353</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.370425941614609</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7798022035.614001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003794567518948876</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.302723066168396</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9344321194335237</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.302723066168396</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5984023256.96349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004261689518158055</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.265765115026257</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8747774002345328</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.265765115026257</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5124989249.722789</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002370205305705512</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.29878906308237</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9080382013356889</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.29878906308237</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6656444301.610186</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001244908552291983</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.354951334308186</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9514120295062893</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.354951334308186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4182020498.523209</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002187413124764782</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.799144487040174</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8551221014955472</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.799144487040174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4606836042.172593</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001058330613431095</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.811210734727715</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8167081309359628</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.811210734727715</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6016065941.910727</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005032263832239236</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.958865651466576</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.810767140389211</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.958865651466576</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4242653880.350074</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004801948516929986</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.483356170627944</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8095450132637597</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.483356170627944</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7700811163.166157</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001562647646394125</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>15</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.452822065483397</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.244831221069664</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.452822065483397</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7263669765.874947</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004518775368224511</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.486520034469191</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9631153157904483</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.486520034469191</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5948353433.527189</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004127133125106063</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.660582785744109</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9128387726168798</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.660582785744109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5271603755.040677</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00141004713325026</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.522294863022559</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7682887077390383</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.522294863022559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7623762107.436367</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002785978020937364</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4405161846043433</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971371</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.933132481352811</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8030017611906752</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.933132481352811</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8706978421.392456</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005130023987947967</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.068925962559132</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8630337981190435</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.068925962559132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5188178320.671818</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001517050940822209</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.484785887449967</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9519463062525783</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.484785887449967</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6865651671.014984</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004126740932384203</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.066908596204374</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8692025494649956</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.066908596204374</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7679335077.647997</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002949336654763349</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2882093474488233</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.86632961130898</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.6017696285854053</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.86632961130898</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3356921966.474654</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001299740838987509</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6066894797654965</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.483848876382539</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.0021677593794</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.483848876382539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5692115138.94987</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002915939537881465</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.473641193515174</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8155277778622018</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.473641193515174</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6548622664.587527</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004030392719449043</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.747344170424129</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7567784057043021</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.747344170424129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6052219080.403768</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002514340419011759</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.190683933699126</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.8978138434066245</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.190683933699126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6414889457.474063</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003496409093276589</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.193368406461529</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9806266082698407</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.193368406461529</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5892163492.563605</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005100938196377423</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.082430329561002</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9706706752747849</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.082430329561002</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>2946855538.126738</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004793299830421036</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.82725954204674</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8579545949454688</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.82725954204674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6015670077.393568</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003243087833732196</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.391259738377721</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8244259420179946</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.391259738377721</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6395386323.757376</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004630719066763697</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.232431972568508</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9437498377034979</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.232431972568508</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6405088054.249361</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00105253276097562</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.400546760249225</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.8950975075207269</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.400546760249225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5803604468.007069</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003419803309160602</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3768193938784275</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.939905804107863</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.7715522964712587</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.939905804107863</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5712780580.384581</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004882753138962828</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.49920634984239</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.902668791484625</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.49920634984239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6694639684.017909</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002080029911491785</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.810810138563188</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.8803372477451339</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.810810138563188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5015256772.782756</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001560825097469696</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.324933015407288</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9133858297403502</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.324933015407288</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8567737341.582595</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003846798528994516</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.067245408502617</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.792564319863129</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.067245408502617</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6516016179.181303</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003091710948908276</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.296716490261781</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8819669613169657</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.296716490261781</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7957342424.639193</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002318948540392785</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.274306796066218</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9390787473343306</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.274306796066218</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4595411065.344534</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004409611695275282</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.17424054150178</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8528346653129375</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.17424054150178</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6811638317.587434</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002511215091980456</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.475651544554564</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.012789690237223</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.475651544554564</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4029180994.029842</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004454476011563489</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.8608066512422</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9048401296073904</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.8608066512422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7414103697.924459</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00217810568156067</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.974749950218035</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8119544141187679</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.974749950218035</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4763444203.006632</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002524670049189387</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.211813066344286</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8923829163805945</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.211813066344286</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5349727099.007476</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003775239442661032</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.829100742276284</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8137540380586636</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.829100742276284</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8549857886.926024</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002673963707190407</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>13</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9499405795523861</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.68174058230009</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.24128325244287</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.68174058230009</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5577172752.746502</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001977407131765996</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.415268572643408</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8918329951235454</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.415268572643408</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6223751553.160542</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004442553422077973</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.154254061575072</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8029180488689706</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.154254061575072</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6547442536.99425</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002852032046719312</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.542544947774982</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7682887077390383</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.542544947774982</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7004112186.380457</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004098215099677911</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.004448969629878</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8539739176065965</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.004448969629878</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5725888938.07175</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003954545543772833</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.920196694592236</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.801105236701521</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.920196694592236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6790252771.349361</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004672563010388134</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.36251552714663</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8956653772857744</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.36251552714663</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6271736762.878308</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002576240782396984</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8170069635468403</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.490354977066362</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.103286174731149</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.490354977066362</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7730018763.487483</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004778417415280915</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.65286547382845</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5150787536377128</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.65286547382845</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5503266214.640661</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004341038312567422</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.185740112497033</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9021152354009642</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.185740112497033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7161430319.655284</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005608234789258879</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.647352837736983</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.979634656009006</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.647352837736983</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4937517207.695077</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003381848063807622</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.415857225257594</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8896499985978632</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.415857225257594</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6464314848.725512</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00570629123841431</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.962100214105931</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8742061832218482</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.962100214105931</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7116458921.174558</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001962217951961128</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.77583696634244</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.697991354597795</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.77583696634244</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6136693543.813704</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001038103316214646</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.946895858900371</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9590595905456283</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.946895858900371</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6898595911.042104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002919440821402796</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.042974802303946</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8934517408338928</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.042974802303946</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3712590295.829696</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002522739347649087</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.553349846250634</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7870077569952004</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.553349846250634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5448157554.832898</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002136597728284955</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>11</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4656486933794066</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.905988555217891</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.9427564456174001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.905988555217891</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5523298562.807412</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001032902511205899</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.360939068175856</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.923959230149725</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.360939068175856</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4091261204.984628</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004695042752740954</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8833907755016325</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.132916635193624</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.169827326520385</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.132916635193624</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6831731316.036551</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004020675121903237</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.876145473752926</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8119654189236303</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.876145473752926</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4934203269.335464</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002161250411860857</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.779880198115028</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8636124048863345</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.779880198115028</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7965558261.313674</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005476478963015026</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.3899551067352235</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.265892374227041</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.8358002618565031</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-4.265892374227041</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>4870990509.910389</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004315483829577735</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9372461811274053</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.727315516620025</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.241590210147224</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.727315516620025</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7817708612.153768</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001894348002078926</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.797176436897598</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.939601017428098</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.797176436897598</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7950248946.466701</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002845092342179461</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2812431566802446</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.090259506409583</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.595756370507322</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.090259506409583</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4927642644.405189</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005192644089913639</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.800196392240416</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9478427911290673</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.800196392240416</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8458770350.501579</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005807168723329419</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.121231920934372</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8675282583682756</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.121231920934372</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9061817819.452444</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003009914188801467</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.373513926864397</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7523219223902985</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.373513926864397</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5906945485.057767</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004936558986828646</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.663908277375896</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.8956653772857744</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.663908277375896</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4321236381.303412</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003058208781632906</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>13</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.631253595331515</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8579650097229596</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.631253595331515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5885982363.855263</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002397052421729741</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.172708186886423</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9442695242473305</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.172708186886423</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4425063879.111854</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001120467509189648</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>15</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2491548858462852</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.502601068513478</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.4970028201621567</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.502601068513478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8978739269.311382</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003520171660417098</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.842474098702052</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.7944078706621264</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.842474098702052</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5034941415.568122</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004740017923676546</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
         <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.147647916651284</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9026786903661724</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.147647916651284</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5429420411.51388</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003009849031013194</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.971568390150797</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9005219857701046</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.971568390150797</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6655582639.875159</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00431605197745874</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.093556608061143</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8149150307161382</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.093556608061143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4560003715.170236</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004134993032744077</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.453164515800432</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.014250640789735</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.453164515800432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7939100092.268424</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00134782152917592</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.926359830814725</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8803270976441668</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.926359830814725</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6855082148.687895</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001089717244751179</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.279031464506267</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.004121734270966</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-4.279031464506267</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5189892313.035094</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002874196062205799</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.313565622383952</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.8907421656114107</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.313565622383952</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6091318784.456148</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002512865269746382</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>14</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.06279180788791698</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.650287034235181</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.398377960786821</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.650287034235181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6383144925.717131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005646353029986735</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.183247966499958</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8494077404760603</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.183247966499958</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7223515859.268659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003441812741133007</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.416937355927363</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8567997779839615</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.416937355927363</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3394617411.414361</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005737056704968441</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.841666685266448</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8539843809304904</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.841666685266448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5695998494.586678</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00350929075528887</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.311367237089358</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8059340368302093</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.311367237089358</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8263813319.449018</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001182860596355783</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5123885912514292</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.07772501202459</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8367329555953403</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.07772501202459</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_49.xlsx
+++ b/output/fit_clients/fit_round_49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8052635574.84541</v>
+        <v>1519227684.614735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003288929465530237</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
+        <v>0.1136574964860262</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04455679290011806</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>759613773.1128395</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4728184748.294971</v>
+        <v>1701835425.383847</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005897709819276553</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
+        <v>0.1343545633516719</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04471433409111623</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>850917706.4336586</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5754095717.104565</v>
+        <v>4361399570.301286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003992395837278902</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.112190781311639</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02971598203008881</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2180699824.796342</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3537745703.255125</v>
+        <v>2681117741.436108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004266658703175392</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06913145748255042</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04053595098171021</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1340558961.535576</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6956340182.911033</v>
+        <v>2102455031.299986</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002086219068376888</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>0.09880714557617154</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0547170488826676</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1051227534.013793</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7613269772.960824</v>
+        <v>2797751462.128703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001286252901522503</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.07946444497514903</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04699305369884527</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>16</v>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1398875715.287078</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6483000157.840397</v>
+        <v>3969237908.95048</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002609868817345937</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+        <v>0.1357658619159892</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03331322425565115</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1984619110.906423</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4825061561.60134</v>
+        <v>1746370896.352995</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004953372961225297</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>15</v>
+        <v>0.1989904632081851</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03201959794889194</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>873185509.8555107</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4182745166.865132</v>
+        <v>5623786429.556003</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00434656564343777</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1504628662172701</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05242041162609688</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2811893362.237213</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5176535279.765235</v>
+        <v>2987975767.431593</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001189375464674789</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1160797091008795</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04990579851206255</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1493987825.635258</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6590794050.680652</v>
+        <v>2998344571.065285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001760536923093009</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>14</v>
+        <v>0.1680999724454866</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04460618482263685</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1499172303.272719</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6702993415.227519</v>
+        <v>3792191296.297498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004237642998403263</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
+        <v>0.0637640612387568</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02682535684298492</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1896095713.507986</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5881320800.612436</v>
+        <v>2643569260.809635</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002621616531975537</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.1733842490390046</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03487319112375784</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1321784690.513913</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7798022035.614001</v>
+        <v>1603308769.971596</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003794567518948876</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
+        <v>0.07535916989641227</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04598724089533777</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>801654493.7834914</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5984023256.96349</v>
+        <v>2531446198.941667</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004261689518158055</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15</v>
+        <v>0.09552735011718926</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0489299946981336</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1265723127.334941</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5124989249.722789</v>
+        <v>5324431141.484945</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002370205305705512</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1121437139599972</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04560251432189326</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2662215539.790855</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6656444301.610186</v>
+        <v>3497420620.639372</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001244908552291983</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13</v>
+        <v>0.1638236004945414</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03299747580448224</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1748710304.413746</v>
       </c>
     </row>
     <row r="19">
@@ -959,19 +1071,25 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4182020498.523209</v>
+        <v>1300949151.786015</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002187413124764782</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1269114913850078</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02501968427567632</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>650474678.2483602</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>485</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2451105840.26275</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1433111331836635</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02016147550102773</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="n">
-        <v>508</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4606836042.172593</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.001058330613431095</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+      <c r="J20" t="n">
+        <v>1225552898.294904</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6016065941.910727</v>
+        <v>2291132108.837791</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005032263832239236</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+        <v>0.07055659708100362</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03433138678447344</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1145566062.389626</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4242653880.350074</v>
+        <v>3244993415.016306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004801948516929986</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1122229964596221</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03857114057076692</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1622496754.232939</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7700811163.166157</v>
+        <v>1317976456.732952</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001562647646394125</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
+        <v>0.1167400762126963</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04451225344949965</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>658988244.8433174</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7263669765.874947</v>
+        <v>2834405912.701143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004518775368224511</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>14</v>
+        <v>0.129324354346862</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03637576661210966</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1417203002.614886</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5948353433.527189</v>
+        <v>1028252250.585573</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004127133125106063</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.1061736949143316</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0229589092943022</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>514126182.6333509</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5271603755.040677</v>
+        <v>976714021.956834</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00141004713325026</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1117271901089301</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0299975962632406</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>488356977.1429793</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7623762107.436367</v>
+        <v>3911056458.715063</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002785978020937364</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>14</v>
+        <v>0.09489869427487704</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0237520842711086</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1955528243.786043</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3625206481.614984</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1132907073342209</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04268798494607477</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8706978421.392456</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.005130023987947967</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>12</v>
+      <c r="I28" t="n">
+        <v>16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1812603306.173814</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5188178320.671818</v>
+        <v>3707925118.160944</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001517050940822209</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.141683067424181</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04082099078131964</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1853962596.073931</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6865651671.014984</v>
+        <v>1953397396.552468</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004126740932384203</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.1254550972145466</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03010703407996842</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>976698730.2662933</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7679335077.647997</v>
+        <v>1286907556.899074</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002949336654763349</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
+        <v>0.1026967295451749</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03283501114805386</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>643453709.3335588</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3356921966.474654</v>
+        <v>1788451032.170226</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001299740838987509</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1122520419062936</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03757954257065685</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>894225643.9968286</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5692115138.94987</v>
+        <v>2627970116.993035</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002915939537881465</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.1675388499444929</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04736430266805917</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1313985085.67274</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6548622664.587527</v>
+        <v>1120648714.704475</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004030392719449043</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>15</v>
+        <v>0.1003062654794674</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02390771376993358</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>560324375.2903944</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6052219080.403768</v>
+        <v>913509976.9755847</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002514340419011759</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
+        <v>0.1036352695076362</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0333881997272484</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>456755025.9141174</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6414889457.474063</v>
+        <v>2682195470.366989</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003496409093276589</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>14</v>
+        <v>0.1778647771655861</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01827522123783645</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1341097742.438131</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5892163492.563605</v>
+        <v>2073592188.45155</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005100938196377423</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.1059516168241417</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03192837059791487</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>13</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1036796131.487985</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2946855538.126738</v>
+        <v>1843438197.337004</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004793299830421036</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08510962145095466</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03275862628121713</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>921719099.2773077</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6015670077.393568</v>
+        <v>1586592920.923629</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003243087833732196</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1323716011318751</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02383291576058898</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>793296517.6273596</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6395386323.757376</v>
+        <v>1482561299.369678</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004630719066763697</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>13</v>
+        <v>0.1173357952260125</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04331671121125323</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>741280620.0884687</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6405088054.249361</v>
+        <v>2178227659.205453</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00105253276097562</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>14</v>
+        <v>0.11649251070637</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04101345233335275</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1089113886.213696</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5803604468.007069</v>
+        <v>3711451011.78472</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003419803309160602</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.09283572861100696</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03251495259502556</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1855725515.189931</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5712780580.384581</v>
+        <v>2272376901.178563</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004882753138962828</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
+        <v>0.2019752733935972</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01867897942676423</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1136188521.985826</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6694639684.017909</v>
+        <v>2097481556.916709</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002080029911491785</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
+        <v>0.09865516567010255</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03487497978164904</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1048740904.101885</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5015256772.782756</v>
+        <v>1917030703.908847</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001560825097469696</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.185750705118635</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03458712450065774</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>958515334.3143473</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8567737341.582595</v>
+        <v>4633763881.498666</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003846798528994516</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
+        <v>0.1408393448489519</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05800042069797617</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2316881946.431406</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6516016179.181303</v>
+        <v>3938474235.59462</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003091710948908276</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1366972495104401</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04446091900769691</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1969237113.34609</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7957342424.639193</v>
+        <v>3384752885.254874</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002318948540392785</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
+        <v>0.1057425294602835</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02468330314755872</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1692376512.606611</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4595411065.344534</v>
+        <v>1913954554.359173</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004409611695275282</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1884160726640879</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03159150561675025</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>956977244.6888875</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6811638317.587434</v>
+        <v>3810563523.826223</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002511215091980456</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+        <v>0.1784939949897894</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04396478288228762</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1905281763.928434</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4029180994.029842</v>
+        <v>954971713.1929618</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004454476011563489</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1867539638034074</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05425349321797025</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>477485947.6982968</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7414103697.924459</v>
+        <v>4426904248.281791</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00217810568156067</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12</v>
+        <v>0.1075638921099749</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04775056195518235</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>20</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2213452155.369233</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4763444203.006632</v>
+        <v>2622670178.142242</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002524670049189387</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+        <v>0.1482794636855086</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03437727820401057</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1311335147.398942</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5349727099.007476</v>
+        <v>4451742892.155413</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003775239442661032</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>12</v>
+        <v>0.1135534804996583</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04662577163877306</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2225871545.456121</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8549857886.926024</v>
+        <v>4636824096.781478</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002673963707190407</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>16</v>
+        <v>0.1453489001839403</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03169302911550794</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2318412051.236415</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5577172752.746502</v>
+        <v>1301674280.928322</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001977407131765996</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1464067987425781</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05788128438905749</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>650837211.9451241</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6223751553.160542</v>
+        <v>3920801790.396115</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004442553422077973</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1323601378638159</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02313440282497017</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1960400976.75311</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6547442536.99425</v>
+        <v>1387727515.040131</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002852032046719312</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>11</v>
+        <v>0.1653194224418788</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03834878111600686</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>693863798.745826</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7004112186.380457</v>
+        <v>5405473976.422185</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004098215099677911</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.09514710595898351</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0421650077521649</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2702736896.232653</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5725888938.07175</v>
+        <v>3769423131.939883</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003954545543772833</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1313702210760222</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02268081052608537</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1884711716.825935</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6790252771.349361</v>
+        <v>2646946516.506618</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004672563010388134</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>11</v>
+        <v>0.1770056863997208</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02766227247354397</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1323473271.879923</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6271736762.878308</v>
+        <v>2029059137.931957</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002576240782396984</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
+        <v>0.1803815635762034</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03080983916477066</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1014529631.269461</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7730018763.487483</v>
+        <v>3921858832.586576</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004778417415280915</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.08124446039702356</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04660902798610476</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1960929482.022594</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5503266214.640661</v>
+        <v>3547271707.078999</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004341038312567422</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.146985857444007</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02581155909313989</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1773635857.424297</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7161430319.655284</v>
+        <v>5382550319.211604</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005608234789258879</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>0.1371412270878798</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0197604239436842</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2691275095.575555</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4937517207.695077</v>
+        <v>4685618431.825694</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003381848063807622</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
+        <v>0.1416703985286238</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03579936280661737</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2342809226.087106</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6464314848.725512</v>
+        <v>3326907226.626006</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00570629123841431</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>9</v>
+        <v>0.07880478491632043</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04637789577128372</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1663453603.757787</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7116458921.174558</v>
+        <v>5240182604.856009</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001962217951961128</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
+        <v>0.1002547376503697</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04352424309184453</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2620091373.232054</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6136693543.813704</v>
+        <v>1889753547.637284</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001038103316214646</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
+        <v>0.1662637884016913</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05305531946572637</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>944876764.3730658</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6898595911.042104</v>
+        <v>3265572104.290066</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002919440821402796</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
+        <v>0.08811315791551208</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04730851859111462</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1632786046.319342</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3712590295.829696</v>
+        <v>4748095936.925665</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002522739347649087</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1292114630945546</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02764394157374546</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2374048055.203629</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5448157554.832898</v>
+        <v>1881263635.685892</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002136597728284955</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.07956696018275822</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03740131182454422</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>940631783.2001306</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5523298562.807412</v>
+        <v>2395949671.367995</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001032902511205899</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>11</v>
+        <v>0.09831115858736586</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04566867784957866</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>19</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1197974886.776874</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4091261204.984628</v>
+        <v>2890821725.548596</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004695042752740954</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+        <v>0.1548778592365565</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02297864218308678</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>17</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1445410937.486351</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6831731316.036551</v>
+        <v>2318646924.477145</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004020675121903237</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>9</v>
+        <v>0.1143118612526654</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0329431062954765</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1159323396.407997</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4934203269.335464</v>
+        <v>4525811316.420149</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002161250411860857</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
+        <v>0.1186065000876357</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02126298150360631</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2262905664.868382</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7965558261.313674</v>
+        <v>1458333654.305571</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005476478963015026</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>16</v>
+        <v>0.1708538649911564</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03174027720207168</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>729166808.5285021</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4870990509.910389</v>
+        <v>4006339398.06151</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004315483829577735</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
+        <v>0.1319528092590169</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0530596877479175</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2003169664.134862</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7817708612.153768</v>
+        <v>1320920478.845183</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001894348002078926</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1382981969592642</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02814154437688323</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>660460242.1667495</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7950248946.466701</v>
+        <v>4463654835.553097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002845092342179461</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>15</v>
+        <v>0.09517207213671146</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02428306975588201</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2231827440.174287</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4927642644.405189</v>
+        <v>4098168293.147484</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005192644089913639</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>9</v>
+        <v>0.1089330192347529</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02574973733450465</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2049084113.272699</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8458770350.501579</v>
+        <v>4776250126.58253</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005807168723329419</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.1617807530710482</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02252241451846305</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2388125059.53989</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9061817819.452444</v>
+        <v>2467722029.399231</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009914188801467</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1334141568113918</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0435191258448398</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1233861058.049652</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5906945485.057767</v>
+        <v>2236739039.057012</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004936558986828646</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.08296636907486728</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03464031088570198</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1118369489.717518</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4321236381.303412</v>
+        <v>2217870407.344175</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003058208781632906</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1802887334438635</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04741092269385364</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1108935177.336794</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5885982363.855263</v>
+        <v>2449337115.105237</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002397052421729741</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1068208747732101</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02417174153822303</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1224668647.522875</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4425063879.111854</v>
+        <v>1497022916.122743</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001120467509189648</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1659894328108079</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03899609400133235</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>748511589.6427925</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8978739269.311382</v>
+        <v>2752271782.107254</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003520171660417098</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11</v>
+        <v>0.1432243791632223</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02442929109075379</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1376135896.891104</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5034941415.568122</v>
+        <v>2968512114.633269</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004740017923676546</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>10</v>
+        <v>0.1135458469114023</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03851569189587439</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1484256097.600703</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5429420411.51388</v>
+        <v>2170755081.917669</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003009849031013194</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
+        <v>0.1170451528620611</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03749603170502645</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1085377642.336222</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6655582639.875159</v>
+        <v>1683670641.19651</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00431605197745874</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>15</v>
+        <v>0.1624147674596498</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06172754050565683</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>841835334.8909929</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4560003715.170236</v>
+        <v>2483842287.214893</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004134993032744077</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0740728866585502</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02996518359685978</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1241921126.202629</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7939100092.268424</v>
+        <v>4789038232.862151</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00134782152917592</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>17</v>
+        <v>0.1140693636464442</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04448893132805998</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>14</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2394519065.908571</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6855082148.687895</v>
+        <v>1661554203.30173</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001089717244751179</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
+        <v>0.1119655868215508</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02863922079270073</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>830777055.8277682</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5189892313.035094</v>
+        <v>2493956409.502152</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002874196062205799</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>13</v>
+        <v>0.1189557898305706</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05189003467177604</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1246978241.147026</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6091318784.456148</v>
+        <v>2333935389.650301</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002512865269746382</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>13</v>
+        <v>0.1345665105742165</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04004126923355918</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1166967646.023688</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6383144925.717131</v>
+        <v>5080705465.430573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005646353029986735</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>13</v>
+        <v>0.1498779390600212</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02884061617001449</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2540352875.859369</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7223515859.268659</v>
+        <v>2603372826.14932</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003441812741133007</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>19</v>
+        <v>0.0970468829621583</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03238793996368745</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1301686370.726787</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3394617411.414361</v>
+        <v>3420126772.102355</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005737056704968441</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09806413135217898</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03327793825069267</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>14</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1710063402.347288</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5695998494.586678</v>
+        <v>3316857293.039118</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00350929075528887</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1347060928157537</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0186298286960624</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1658428662.517001</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8263813319.449018</v>
+        <v>2765455465.996471</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001182860596355783</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>16</v>
+        <v>0.2227464616340348</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05168148386366619</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1382727790.907698</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_49.xlsx
+++ b/output/fit_clients/fit_round_49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1519227684.614735</v>
+        <v>2262976209.231493</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1136574964860262</v>
+        <v>0.10614904280704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04455679290011806</v>
+        <v>0.02916197040224002</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>759613773.1128395</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1701835425.383847</v>
+        <v>1710881523.800327</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1343545633516719</v>
+        <v>0.1624815958105539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04471433409111623</v>
+        <v>0.04394917175616671</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>850917706.4336586</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4361399570.301286</v>
+        <v>4417180234.692581</v>
       </c>
       <c r="F4" t="n">
-        <v>0.112190781311639</v>
+        <v>0.1495843865529193</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02971598203008881</v>
+        <v>0.0270783909664131</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2180699824.796342</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2681117741.436108</v>
+        <v>3281650002.256307</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06913145748255042</v>
+        <v>0.09208487640557449</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04053595098171021</v>
+        <v>0.03214220531574048</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1340558961.535576</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2102455031.299986</v>
+        <v>2441240741.642132</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09880714557617154</v>
+        <v>0.1485484891032763</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0547170488826676</v>
+        <v>0.05625834673089723</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1051227534.013793</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2797751462.128703</v>
+        <v>2703490767.33171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07946444497514903</v>
+        <v>0.07591287042800673</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04699305369884527</v>
+        <v>0.04352355309688703</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1398875715.287078</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3969237908.95048</v>
+        <v>3742690239.608375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1357658619159892</v>
+        <v>0.14154348602543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03331322425565115</v>
+        <v>0.02148115192107703</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1984619110.906423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1746370896.352995</v>
+        <v>1846584447.394413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1989904632081851</v>
+        <v>0.1947550320917397</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03201959794889194</v>
+        <v>0.03711764658167074</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>873185509.8555107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5623786429.556003</v>
+        <v>4216286880.025611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1504628662172701</v>
+        <v>0.1986158733502413</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05242041162609688</v>
+        <v>0.03855739484524988</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2811893362.237213</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2987975767.431593</v>
+        <v>3604223749.406308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1160797091008795</v>
+        <v>0.1305213137504684</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04990579851206255</v>
+        <v>0.03356737839471608</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1493987825.635258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2998344571.065285</v>
+        <v>3306176466.533008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1680999724454866</v>
+        <v>0.1366766245447142</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04460618482263685</v>
+        <v>0.03619514188488978</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1499172303.272719</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3792191296.297498</v>
+        <v>3418253304.958114</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0637640612387568</v>
+        <v>0.0779998896979149</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02682535684298492</v>
+        <v>0.01892533097852422</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1896095713.507986</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2643569260.809635</v>
+        <v>2677302466.235633</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1733842490390046</v>
+        <v>0.1396435092496272</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03487319112375784</v>
+        <v>0.03189534967194881</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1321784690.513913</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1603308769.971596</v>
+        <v>1816242840.657979</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07535916989641227</v>
+        <v>0.09946297004557848</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04598724089533777</v>
+        <v>0.03709867070523374</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>801654493.7834914</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2531446198.941667</v>
+        <v>2432625455.368995</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09552735011718926</v>
+        <v>0.0957473404341468</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0489299946981336</v>
+        <v>0.04808977787276355</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1265723127.334941</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5324431141.484945</v>
+        <v>4293901827.053815</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1121437139599972</v>
+        <v>0.164264821153794</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04560251432189326</v>
+        <v>0.03208125356827147</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2662215539.790855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3497420620.639372</v>
+        <v>2492852693.295561</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1638236004945414</v>
+        <v>0.1521166129650086</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03299747580448224</v>
+        <v>0.02833114730255654</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1748710304.413746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1300949151.786015</v>
+        <v>1249163223.795618</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1269114913850078</v>
+        <v>0.1431409305372444</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02501968427567632</v>
+        <v>0.02648525379620905</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>650474678.2483602</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2451105840.26275</v>
+        <v>1892413415.776144</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1433111331836635</v>
+        <v>0.1472920140191086</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02016147550102773</v>
+        <v>0.02137478074848009</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1225552898.294904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2291132108.837791</v>
+        <v>2657300442.25844</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07055659708100362</v>
+        <v>0.07619946707365666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03433138678447344</v>
+        <v>0.03828767998550568</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1145566062.389626</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3244993415.016306</v>
+        <v>3124497010.883461</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1122229964596221</v>
+        <v>0.0948649263878783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03857114057076692</v>
+        <v>0.0430378473040987</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1622496754.232939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1317976456.732952</v>
+        <v>1231442345.240409</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1167400762126963</v>
+        <v>0.1658063608408569</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04451225344949965</v>
+        <v>0.03693755057397152</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>658988244.8433174</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2834405912.701143</v>
+        <v>3423714308.16384</v>
       </c>
       <c r="F24" t="n">
-        <v>0.129324354346862</v>
+        <v>0.1060630241698597</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03637576661210966</v>
+        <v>0.0272724143381008</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1417203002.614886</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1028252250.585573</v>
+        <v>964682951.0924523</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1061736949143316</v>
+        <v>0.1004897041061577</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0229589092943022</v>
+        <v>0.02251813242690683</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>514126182.6333509</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>976714021.956834</v>
+        <v>1447187387.898486</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1117271901089301</v>
+        <v>0.09574312536224738</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0299975962632406</v>
+        <v>0.03617798983041014</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>488356977.1429793</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3911056458.715063</v>
+        <v>3859293723.78695</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09489869427487704</v>
+        <v>0.1379305926231579</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0237520842711086</v>
+        <v>0.02622709454360118</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1955528243.786043</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3625206481.614984</v>
+        <v>2903399402.511154</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1132907073342209</v>
+        <v>0.1387640253282839</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04268798494607477</v>
+        <v>0.04669863392808234</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>16</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1812603306.173814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3707925118.160944</v>
+        <v>4285859821.08377</v>
       </c>
       <c r="F29" t="n">
-        <v>0.141683067424181</v>
+        <v>0.137633473166551</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04082099078131964</v>
+        <v>0.02923637908464135</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>22</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1853962596.073931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1953397396.552468</v>
+        <v>2088641391.315222</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1254550972145466</v>
+        <v>0.09359805383325609</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03010703407996842</v>
+        <v>0.03405371595590068</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>976698730.2662933</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1286907556.899074</v>
+        <v>1389500501.160145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1026967295451749</v>
+        <v>0.07125310295397198</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03283501114805386</v>
+        <v>0.03581780909866018</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>643453709.3335588</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1788451032.170226</v>
+        <v>1671851486.968162</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1122520419062936</v>
+        <v>0.1156429569800931</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03757954257065685</v>
+        <v>0.03435308862179082</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>894225643.9968286</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2627970116.993035</v>
+        <v>2439656870.826657</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1675388499444929</v>
+        <v>0.1921779023260451</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04736430266805917</v>
+        <v>0.05996378608388608</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1313985085.67274</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1120648714.704475</v>
+        <v>1001280887.272322</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1003062654794674</v>
+        <v>0.07433733090928289</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02390771376993358</v>
+        <v>0.02691485380983984</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>560324375.2903944</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913509976.9755847</v>
+        <v>853199904.5890521</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1036352695076362</v>
+        <v>0.07114518169621938</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0333881997272484</v>
+        <v>0.03099795716426612</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>456755025.9141174</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2682195470.366989</v>
+        <v>1987543007.161372</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1778647771655861</v>
+        <v>0.1607655229671251</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01827522123783645</v>
+        <v>0.02713169387165897</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1341097742.438131</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2073592188.45155</v>
+        <v>2341947422.709068</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059516168241417</v>
+        <v>0.07049534998897014</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03192837059791487</v>
+        <v>0.03136946685302393</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1036796131.487985</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1843438197.337004</v>
+        <v>1656809702.303471</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08510962145095466</v>
+        <v>0.1172520546294344</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03275862628121713</v>
+        <v>0.0261285107463887</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>921719099.2773077</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1586592920.923629</v>
+        <v>1799200927.079097</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1323716011318751</v>
+        <v>0.1760808815164948</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02383291576058898</v>
+        <v>0.02389551426527935</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>793296517.6273596</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1482561299.369678</v>
+        <v>1365514177.904385</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1173357952260125</v>
+        <v>0.1249681344265497</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04331671121125323</v>
+        <v>0.04260965288724811</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>741280620.0884687</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2178227659.205453</v>
+        <v>2370185027.692712</v>
       </c>
       <c r="F41" t="n">
-        <v>0.11649251070637</v>
+        <v>0.134989675645436</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04101345233335275</v>
+        <v>0.03029435180799825</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1089113886.213696</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3711451011.78472</v>
+        <v>3431755376.310997</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09283572861100696</v>
+        <v>0.120950704262111</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03251495259502556</v>
+        <v>0.03962232250666123</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1855725515.189931</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2272376901.178563</v>
+        <v>2194368285.942625</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2019752733935972</v>
+        <v>0.1842994647246627</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01867897942676423</v>
+        <v>0.02081916075291038</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1136188521.985826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2097481556.916709</v>
+        <v>2286697827.725929</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09865516567010255</v>
+        <v>0.08191227363774989</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03487497978164904</v>
+        <v>0.02900796063947023</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1048740904.101885</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1917030703.908847</v>
+        <v>1644390626.682093</v>
       </c>
       <c r="F45" t="n">
-        <v>0.185750705118635</v>
+        <v>0.1418888643242125</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03458712450065774</v>
+        <v>0.05286063087765655</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>958515334.3143473</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4633763881.498666</v>
+        <v>5359898300.573611</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1408393448489519</v>
+        <v>0.1390594103864766</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05800042069797617</v>
+        <v>0.04880359390269607</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2316881946.431406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3938474235.59462</v>
+        <v>5144815395.893435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1366972495104401</v>
+        <v>0.1881499457495253</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04446091900769691</v>
+        <v>0.04828057989074554</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1969237113.34609</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3384752885.254874</v>
+        <v>3265921119.59859</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1057425294602835</v>
+        <v>0.08381092364550848</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02468330314755872</v>
+        <v>0.03751571317429669</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1692376512.606611</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1913954554.359173</v>
+        <v>1487581298.364186</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1884160726640879</v>
+        <v>0.1521643847099822</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03159150561675025</v>
+        <v>0.02899090868539004</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>956977244.6888875</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3810563523.826223</v>
+        <v>3444829384.478004</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1784939949897894</v>
+        <v>0.1610977178195197</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04396478288228762</v>
+        <v>0.04842725930618821</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>17</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1905281763.928434</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>954971713.1929618</v>
+        <v>1093214164.584279</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1867539638034074</v>
+        <v>0.1190472761738062</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05425349321797025</v>
+        <v>0.04332113590343685</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>477485947.6982968</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4426904248.281791</v>
+        <v>5303951832.846524</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1075638921099749</v>
+        <v>0.1324485057718151</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04775056195518235</v>
+        <v>0.03871237796781592</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>20</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2213452155.369233</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2622670178.142242</v>
+        <v>3592186307.169571</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1482794636855086</v>
+        <v>0.1638826725342679</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03437727820401057</v>
+        <v>0.02448948639464294</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1311335147.398942</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4451742892.155413</v>
+        <v>4267022097.719518</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1135534804996583</v>
+        <v>0.1386219713055887</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04662577163877306</v>
+        <v>0.03476974097089271</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2225871545.456121</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4636824096.781478</v>
+        <v>4351039503.955886</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1453489001839403</v>
+        <v>0.1350837057445044</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03169302911550794</v>
+        <v>0.03176151584317031</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2318412051.236415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1301674280.928322</v>
+        <v>1649553633.023691</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1464067987425781</v>
+        <v>0.1109140005055471</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05788128438905749</v>
+        <v>0.05620931435363227</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>650837211.9451241</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3920801790.396115</v>
+        <v>2819235203.206748</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1323601378638159</v>
+        <v>0.1728877724965675</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02313440282497017</v>
+        <v>0.02312042268348868</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1960400976.75311</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1387727515.040131</v>
+        <v>1653897995.13872</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1653194224418788</v>
+        <v>0.1241940603856386</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03834878111600686</v>
+        <v>0.02957320034567311</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>693863798.745826</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5405473976.422185</v>
+        <v>4643985958.283237</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09514710595898351</v>
+        <v>0.07916064253783772</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0421650077521649</v>
+        <v>0.04455580103944094</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2702736896.232653</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3769423131.939883</v>
+        <v>2435619971.071333</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1313702210760222</v>
+        <v>0.1257753205005657</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02268081052608537</v>
+        <v>0.02988434362485544</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1884711716.825935</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2646946516.506618</v>
+        <v>2644682682.129244</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1770056863997208</v>
+        <v>0.1466229683408764</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02766227247354397</v>
+        <v>0.02134088063632939</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1323473271.879923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2029059137.931957</v>
+        <v>1361201869.400434</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1803815635762034</v>
+        <v>0.1904126103236126</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03080983916477066</v>
+        <v>0.04288595809990366</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1014529631.269461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3921858832.586576</v>
+        <v>3920895320.207928</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08124446039702356</v>
+        <v>0.1026636629321043</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04660902798610476</v>
+        <v>0.02919240524375744</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1960929482.022594</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3547271707.078999</v>
+        <v>4790365870.024551</v>
       </c>
       <c r="F64" t="n">
-        <v>0.146985857444007</v>
+        <v>0.145576422129172</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02581155909313989</v>
+        <v>0.02961801839021272</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1773635857.424297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5382550319.211604</v>
+        <v>4841624839.914045</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1371412270878798</v>
+        <v>0.1270974651484354</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0197604239436842</v>
+        <v>0.02645493557355102</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>18</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2691275095.575555</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4685618431.825694</v>
+        <v>4778444758.256907</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1416703985286238</v>
+        <v>0.1130813355835976</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03579936280661737</v>
+        <v>0.03448129792674317</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2342809226.087106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3326907226.626006</v>
+        <v>3160791209.400177</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07880478491632043</v>
+        <v>0.08269770741673924</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04637789577128372</v>
+        <v>0.04083949009866363</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1663453603.757787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5240182604.856009</v>
+        <v>4424433966.288002</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1002547376503697</v>
+        <v>0.103388790285478</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04352424309184453</v>
+        <v>0.04255323993603383</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2620091373.232054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1889753547.637284</v>
+        <v>1507996359.364582</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1662637884016913</v>
+        <v>0.1470789999025255</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05305531946572637</v>
+        <v>0.04950333771387332</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>944876764.3730658</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3265572104.290066</v>
+        <v>2727568076.991339</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08811315791551208</v>
+        <v>0.089633625376618</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04730851859111462</v>
+        <v>0.03307820651965382</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1632786046.319342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4748095936.925665</v>
+        <v>5404250856.661982</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1292114630945546</v>
+        <v>0.1389328316412269</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02764394157374546</v>
+        <v>0.02746770605502002</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>18</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2374048055.203629</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1881263635.685892</v>
+        <v>2127211539.670446</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07956696018275822</v>
+        <v>0.09227496131590684</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03740131182454422</v>
+        <v>0.05086614356454481</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>940631783.2001306</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2395949671.367995</v>
+        <v>2774006437.599422</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09831115858736586</v>
+        <v>0.08191115045075681</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04566867784957866</v>
+        <v>0.0344556237880432</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1197974886.776874</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2890821725.548596</v>
+        <v>2692229298.608984</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1548778592365565</v>
+        <v>0.1201973324109123</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02297864218308678</v>
+        <v>0.02858910801305745</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1445410937.486351</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2318646924.477145</v>
+        <v>2087090835.47574</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1143118612526654</v>
+        <v>0.1661062895188348</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0329431062954765</v>
+        <v>0.03440128382561077</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1159323396.407997</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4525811316.420149</v>
+        <v>4928277822.987425</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1186065000876357</v>
+        <v>0.1087603936079619</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02126298150360631</v>
+        <v>0.0262544062307931</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2262905664.868382</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1458333654.305571</v>
+        <v>2191658124.371337</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1708538649911564</v>
+        <v>0.1788249377832231</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03174027720207168</v>
+        <v>0.03109274218047954</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>729166808.5285021</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4006339398.06151</v>
+        <v>3800899907.477665</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1319528092590169</v>
+        <v>0.1142030311330808</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0530596877479175</v>
+        <v>0.03858822185256819</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>17</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2003169664.134862</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1320920478.845183</v>
+        <v>1814578365.665425</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1382981969592642</v>
+        <v>0.1510836282256953</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02814154437688323</v>
+        <v>0.02814285531085284</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>660460242.1667495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4463654835.553097</v>
+        <v>3681613365.603541</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09517207213671146</v>
+        <v>0.07780595189002132</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02428306975588201</v>
+        <v>0.02778990678063564</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2231827440.174287</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4098168293.147484</v>
+        <v>4787774434.959015</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1089330192347529</v>
+        <v>0.1328510138904318</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02574973733450465</v>
+        <v>0.02077518648526861</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2049084113.272699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4776250126.58253</v>
+        <v>4562993331.151778</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1617807530710482</v>
+        <v>0.1568322433863948</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02252241451846305</v>
+        <v>0.02472302455412561</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2388125059.53989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2467722029.399231</v>
+        <v>2485585877.283002</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1334141568113918</v>
+        <v>0.1125239069873007</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0435191258448398</v>
+        <v>0.03082130177039299</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1233861058.049652</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2236739039.057012</v>
+        <v>2595884306.516638</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08296636907486728</v>
+        <v>0.08368293905556033</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03464031088570198</v>
+        <v>0.03783444442659509</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1118369489.717518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2217870407.344175</v>
+        <v>3613809585.92044</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1802887334438635</v>
+        <v>0.1237308941329217</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04741092269385364</v>
+        <v>0.05217017262725566</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1108935177.336794</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2449337115.105237</v>
+        <v>2009284785.731022</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068208747732101</v>
+        <v>0.150740650508366</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02417174153822303</v>
+        <v>0.02554907326186851</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1224668647.522875</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1497022916.122743</v>
+        <v>1052558610.911875</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1659894328108079</v>
+        <v>0.1821277829275915</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03899609400133235</v>
+        <v>0.03163985238081005</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>748511589.6427925</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2752271782.107254</v>
+        <v>3017883048.532713</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1432243791632223</v>
+        <v>0.1692983448158694</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02442929109075379</v>
+        <v>0.02863228823223568</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>18</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1376135896.891104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2968512114.633269</v>
+        <v>2468304487.994601</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1135458469114023</v>
+        <v>0.1201009608880223</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03851569189587439</v>
+        <v>0.02648080045547532</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>17</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1484256097.600703</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2170755081.917669</v>
+        <v>1318253038.681</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1170451528620611</v>
+        <v>0.1340109465754832</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03749603170502645</v>
+        <v>0.04242677014085289</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1085377642.336222</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1683670641.19651</v>
+        <v>1569940678.874067</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1624147674596498</v>
+        <v>0.1677771044928381</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06172754050565683</v>
+        <v>0.0387098854198477</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>841835334.8909929</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2483842287.214893</v>
+        <v>2081642735.654073</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0740728866585502</v>
+        <v>0.09751790362800652</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02996518359685978</v>
+        <v>0.0286953750867441</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1241921126.202629</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4789038232.862151</v>
+        <v>4957363143.05651</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1140693636464442</v>
+        <v>0.1320738459107285</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04448893132805998</v>
+        <v>0.04122841288805149</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>14</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2394519065.908571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1661554203.30173</v>
+        <v>2388854331.410036</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1119655868215508</v>
+        <v>0.1438898163840349</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02863922079270073</v>
+        <v>0.0431319891385188</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>830777055.8277682</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2493956409.502152</v>
+        <v>2347516345.1616</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1189557898305706</v>
+        <v>0.08578314308614081</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05189003467177604</v>
+        <v>0.04541913954692562</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1246978241.147026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2333935389.650301</v>
+        <v>1979152915.709653</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1345665105742165</v>
+        <v>0.1244365128576909</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04004126923355918</v>
+        <v>0.04588909816444492</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1166967646.023688</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5080705465.430573</v>
+        <v>4355280571.147921</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1498779390600212</v>
+        <v>0.118754130407176</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02884061617001449</v>
+        <v>0.02315991819676543</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2540352875.859369</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2603372826.14932</v>
+        <v>3885531750.437398</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0970468829621583</v>
+        <v>0.0785128739351162</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03238793996368745</v>
+        <v>0.02362538908685764</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1301686370.726787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3420126772.102355</v>
+        <v>2950387892.85378</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09806413135217898</v>
+        <v>0.1098634065934751</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03327793825069267</v>
+        <v>0.02597191107080877</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>14</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1710063402.347288</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3316857293.039118</v>
+        <v>3639498377.066818</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1347060928157537</v>
+        <v>0.1135278106524155</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0186298286960624</v>
+        <v>0.02750681137369297</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1658428662.517001</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2765455465.996471</v>
+        <v>3504960896.520679</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2227464616340348</v>
+        <v>0.1392358559029453</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05168148386366619</v>
+        <v>0.03791727062394774</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1382727790.907698</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_49.xlsx
+++ b/output/fit_clients/fit_round_49.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2262976209.231493</v>
+        <v>2326835792.699442</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10614904280704</v>
+        <v>0.09168890059778484</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02916197040224002</v>
+        <v>0.03744522089226916</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1710881523.800327</v>
+        <v>1724996184.428909</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1624815958105539</v>
+        <v>0.1571487344218627</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04394917175616671</v>
+        <v>0.0438388406312195</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4417180234.692581</v>
+        <v>5052897244.404228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1495843865529193</v>
+        <v>0.103515234280749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0270783909664131</v>
+        <v>0.03597905797983301</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3281650002.256307</v>
+        <v>3054949472.607822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09208487640557449</v>
+        <v>0.0944164326261672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03214220531574048</v>
+        <v>0.04736189154691279</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2441240741.642132</v>
+        <v>2440224416.044164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1485484891032763</v>
+        <v>0.09044268280058244</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05625834673089723</v>
+        <v>0.04812380596530724</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2703490767.33171</v>
+        <v>2493497641.409085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07591287042800673</v>
+        <v>0.06827439095379227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04352355309688703</v>
+        <v>0.03755211050799805</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3742690239.608375</v>
+        <v>3062673885.50336</v>
       </c>
       <c r="F8" t="n">
-        <v>0.14154348602543</v>
+        <v>0.1938340268958488</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02148115192107703</v>
+        <v>0.03128423740661919</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1846584447.394413</v>
+        <v>2126903215.771671</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1947550320917397</v>
+        <v>0.1634291179669854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03711764658167074</v>
+        <v>0.03307359419699632</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4216286880.025611</v>
+        <v>4595012324.472332</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986158733502413</v>
+        <v>0.1900302699760199</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03855739484524988</v>
+        <v>0.0476055214039767</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3604223749.406308</v>
+        <v>2682089519.589441</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1305213137504684</v>
+        <v>0.1732390093423508</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03356737839471608</v>
+        <v>0.03408190021942743</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3306176466.533008</v>
+        <v>2379737972.366796</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1366766245447142</v>
+        <v>0.1507088024964938</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03619514188488978</v>
+        <v>0.03751204443747518</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3418253304.958114</v>
+        <v>3882031368.972033</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0779998896979149</v>
+        <v>0.09606089244636</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01892533097852422</v>
+        <v>0.02013406282367873</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2677302466.235633</v>
+        <v>2807891345.202875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1396435092496272</v>
+        <v>0.1452536033026997</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03189534967194881</v>
+        <v>0.03025990936161569</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1816242840.657979</v>
+        <v>1570450406.232232</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09946297004557848</v>
+        <v>0.09613880932514288</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03709867070523374</v>
+        <v>0.03178000085617388</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2432625455.368995</v>
+        <v>2407979862.387907</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0957473404341468</v>
+        <v>0.08538868451767888</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04808977787276355</v>
+        <v>0.04217221719474874</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4293901827.053815</v>
+        <v>4887862584.813861</v>
       </c>
       <c r="F17" t="n">
-        <v>0.164264821153794</v>
+        <v>0.1088604942289158</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03208125356827147</v>
+        <v>0.03273629662712799</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2492852693.295561</v>
+        <v>3103617245.32163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1521166129650086</v>
+        <v>0.1651326390141282</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02833114730255654</v>
+        <v>0.02384722785496987</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1249163223.795618</v>
+        <v>1118353851.417938</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1431409305372444</v>
+        <v>0.1580788851453314</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02648525379620905</v>
+        <v>0.01691413328788297</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1892413415.776144</v>
+        <v>2650569475.545459</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1472920140191086</v>
+        <v>0.1375851085197347</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02137478074848009</v>
+        <v>0.03042625067300746</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2657300442.25844</v>
+        <v>1859139171.788371</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07619946707365666</v>
+        <v>0.08111165390706666</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03828767998550568</v>
+        <v>0.03763467373122992</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3124497010.883461</v>
+        <v>2684560759.879458</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0948649263878783</v>
+        <v>0.1289319172347365</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0430378473040987</v>
+        <v>0.05397939529036287</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1231442345.240409</v>
+        <v>1436071305.682027</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1658063608408569</v>
+        <v>0.1267179010085383</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03693755057397152</v>
+        <v>0.0440241596548122</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3423714308.16384</v>
+        <v>2984829550.247304</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1060630241698597</v>
+        <v>0.142485871762141</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0272724143381008</v>
+        <v>0.03407280225949297</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>964682951.0924523</v>
+        <v>1141797539.850253</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1004897041061577</v>
+        <v>0.1031452742124313</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02251813242690683</v>
+        <v>0.02677094670206431</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1447187387.898486</v>
+        <v>1220558973.049417</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09574312536224738</v>
+        <v>0.09007455628716539</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03617798983041014</v>
+        <v>0.02580927624858453</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3859293723.78695</v>
+        <v>3477885131.203868</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1379305926231579</v>
+        <v>0.1301180386910416</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02622709454360118</v>
+        <v>0.0240234495597541</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2903399402.511154</v>
+        <v>3432571896.439934</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1387640253282839</v>
+        <v>0.1281758049118012</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04669863392808234</v>
+        <v>0.03493115034407183</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4285859821.08377</v>
+        <v>5111429591.582981</v>
       </c>
       <c r="F29" t="n">
-        <v>0.137633473166551</v>
+        <v>0.1208804781846112</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02923637908464135</v>
+        <v>0.0456307060822271</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2088641391.315222</v>
+        <v>2059510936.523673</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09359805383325609</v>
+        <v>0.1001901341871072</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03405371595590068</v>
+        <v>0.03599021391987879</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1389500501.160145</v>
+        <v>972448225.6768645</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07125310295397198</v>
+        <v>0.08453199141655615</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03581780909866018</v>
+        <v>0.05256609176068482</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1671851486.968162</v>
+        <v>1426267880.8901</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1156429569800931</v>
+        <v>0.1082804114576122</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03435308862179082</v>
+        <v>0.03861138705539863</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2439656870.826657</v>
+        <v>2894800169.63191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1921779023260451</v>
+        <v>0.2051531209771932</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05996378608388608</v>
+        <v>0.0405670270059304</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1001280887.272322</v>
+        <v>1490721242.926764</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07433733090928289</v>
+        <v>0.1061349144706848</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02691485380983984</v>
+        <v>0.01886453164939409</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>853199904.5890521</v>
+        <v>1001013712.969799</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07114518169621938</v>
+        <v>0.09811511211391845</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03099795716426612</v>
+        <v>0.0289873016674225</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1987543007.161372</v>
+        <v>2020658616.196037</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1607655229671251</v>
+        <v>0.1612964338873902</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02713169387165897</v>
+        <v>0.018131873018613</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2341947422.709068</v>
+        <v>2245249543.059432</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07049534998897014</v>
+        <v>0.07377695082465394</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03136946685302393</v>
+        <v>0.0312633384146658</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1656809702.303471</v>
+        <v>1509184052.702981</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1172520546294344</v>
+        <v>0.07459805855089685</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0261285107463887</v>
+        <v>0.02825509360632023</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1799200927.079097</v>
+        <v>1993625943.915712</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1760808815164948</v>
+        <v>0.1590004858364582</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02389551426527935</v>
+        <v>0.02041348151321648</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1365514177.904385</v>
+        <v>1812606957.083511</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1249681344265497</v>
+        <v>0.1251713452526013</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04260965288724811</v>
+        <v>0.04299119448749528</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2370185027.692712</v>
+        <v>2455245921.478399</v>
       </c>
       <c r="F41" t="n">
-        <v>0.134989675645436</v>
+        <v>0.1285742567491348</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03029435180799825</v>
+        <v>0.04274082897866294</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3431755376.310997</v>
+        <v>2941266659.001921</v>
       </c>
       <c r="F42" t="n">
-        <v>0.120950704262111</v>
+        <v>0.09153761124045642</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03962232250666123</v>
+        <v>0.03697677934584944</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2194368285.942625</v>
+        <v>1876501347.228592</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1842994647246627</v>
+        <v>0.146429121619649</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02081916075291038</v>
+        <v>0.02210417515604146</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2286697827.725929</v>
+        <v>2035541370.156966</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08191227363774989</v>
+        <v>0.06894729957018798</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02900796063947023</v>
+        <v>0.02579971433002292</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1644390626.682093</v>
+        <v>1756388007.866019</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1418888643242125</v>
+        <v>0.1246387423744548</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05286063087765655</v>
+        <v>0.05217282720597705</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5359898300.573611</v>
+        <v>4074558896.217843</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1390594103864766</v>
+        <v>0.1504388771585677</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04880359390269607</v>
+        <v>0.04068315785376779</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5144815395.893435</v>
+        <v>4484462626.027202</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1881499457495253</v>
+        <v>0.1492278598859081</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04828057989074554</v>
+        <v>0.04697129538915205</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3265921119.59859</v>
+        <v>4481156208.045185</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08381092364550848</v>
+        <v>0.1080582134567659</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03751571317429669</v>
+        <v>0.03026289077101014</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1487581298.364186</v>
+        <v>1376158038.030734</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1521643847099822</v>
+        <v>0.1775310762984176</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02899090868539004</v>
+        <v>0.03397437173598303</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3444829384.478004</v>
+        <v>3967119974.443714</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1610977178195197</v>
+        <v>0.1198499199739104</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04842725930618821</v>
+        <v>0.04891375791685829</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1093214164.584279</v>
+        <v>1194750961.21757</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1190472761738062</v>
+        <v>0.1464904038126073</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04332113590343685</v>
+        <v>0.05191821622882999</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5303951832.846524</v>
+        <v>3618232448.342927</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1324485057718151</v>
+        <v>0.09063936181045891</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03871237796781592</v>
+        <v>0.0449086409273857</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3592186307.169571</v>
+        <v>3319285398.779437</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1638826725342679</v>
+        <v>0.1929328755608614</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02448948639464294</v>
+        <v>0.0236433679467104</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4267022097.719518</v>
+        <v>4919561382.117487</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1386219713055887</v>
+        <v>0.1572205395893281</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03476974097089271</v>
+        <v>0.03867432593243404</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4351039503.955886</v>
+        <v>3088316312.08034</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1350837057445044</v>
+        <v>0.1980980958985508</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03176151584317031</v>
+        <v>0.0253017691505892</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1649553633.023691</v>
+        <v>1178609715.688389</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1109140005055471</v>
+        <v>0.154407918561287</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05620931435363227</v>
+        <v>0.05091272831150179</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2819235203.206748</v>
+        <v>4582453103.015389</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1728877724965675</v>
+        <v>0.1421241599589438</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02312042268348868</v>
+        <v>0.01742484260806217</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1653897995.13872</v>
+        <v>1811219589.767133</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1241940603856386</v>
+        <v>0.1959364610096295</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02957320034567311</v>
+        <v>0.0366524576056425</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4643985958.283237</v>
+        <v>4600960288.274183</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07916064253783772</v>
+        <v>0.1268325543089219</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04455580103944094</v>
+        <v>0.05000204382303667</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2435619971.071333</v>
+        <v>2552521341.55925</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1257753205005657</v>
+        <v>0.1368870187519289</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02988434362485544</v>
+        <v>0.03349426497948896</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2644682682.129244</v>
+        <v>2702910932.040499</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1466229683408764</v>
+        <v>0.1804741402893193</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02134088063632939</v>
+        <v>0.02914977908570435</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1361201869.400434</v>
+        <v>1686958638.903036</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1904126103236126</v>
+        <v>0.1537809500381412</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04288595809990366</v>
+        <v>0.03073050052810124</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3920895320.207928</v>
+        <v>4213182890.822614</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1026636629321043</v>
+        <v>0.08206470659067983</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02919240524375744</v>
+        <v>0.0449416996001316</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4790365870.024551</v>
+        <v>5078501019.120489</v>
       </c>
       <c r="F64" t="n">
-        <v>0.145576422129172</v>
+        <v>0.1899176354503513</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02961801839021272</v>
+        <v>0.02970798973058166</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4841624839.914045</v>
+        <v>4698879027.320616</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1270974651484354</v>
+        <v>0.1091659005983784</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02645493557355102</v>
+        <v>0.02174239291961224</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4778444758.256907</v>
+        <v>3776587102.414526</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1130813355835976</v>
+        <v>0.1053707652482935</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03448129792674317</v>
+        <v>0.04500021920630527</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3160791209.400177</v>
+        <v>2591597755.233215</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08269770741673924</v>
+        <v>0.073848454970406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04083949009866363</v>
+        <v>0.03872729207748545</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4424433966.288002</v>
+        <v>4163911159.124377</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103388790285478</v>
+        <v>0.1087403904790338</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04255323993603383</v>
+        <v>0.03962974743304237</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1507996359.364582</v>
+        <v>2323022147.611754</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1470789999025255</v>
+        <v>0.1583136942981254</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04950333771387332</v>
+        <v>0.04799716314215995</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2727568076.991339</v>
+        <v>2896436760.732585</v>
       </c>
       <c r="F70" t="n">
-        <v>0.089633625376618</v>
+        <v>0.06809664609434438</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03307820651965382</v>
+        <v>0.03940368877046765</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5404250856.661982</v>
+        <v>3959855720.278933</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1389328316412269</v>
+        <v>0.1475925491852245</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02746770605502002</v>
+        <v>0.02945586129989564</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2127211539.670446</v>
+        <v>1967142646.464071</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09227496131590684</v>
+        <v>0.1013684651465797</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05086614356454481</v>
+        <v>0.03892476303635379</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2774006437.599422</v>
+        <v>2786911284.297987</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08191115045075681</v>
+        <v>0.08490152562062582</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0344556237880432</v>
+        <v>0.04728682650192937</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2692229298.608984</v>
+        <v>3598718455.39958</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1201973324109123</v>
+        <v>0.1742628030554771</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02858910801305745</v>
+        <v>0.02864428754465006</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2087090835.47574</v>
+        <v>1813985802.141239</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1661062895188348</v>
+        <v>0.1186062761116955</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03440128382561077</v>
+        <v>0.02817421004987508</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4928277822.987425</v>
+        <v>4733432673.224866</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1087603936079619</v>
+        <v>0.09560123544315262</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0262544062307931</v>
+        <v>0.02146056285178402</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2191658124.371337</v>
+        <v>1902982351.067095</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1788249377832231</v>
+        <v>0.1678816350969153</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03109274218047954</v>
+        <v>0.02052091701617028</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3800899907.477665</v>
+        <v>4655023247.394592</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1142030311330808</v>
+        <v>0.1143395106529701</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03858822185256819</v>
+        <v>0.04946285717198638</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1814578365.665425</v>
+        <v>1726378380.609674</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1510836282256953</v>
+        <v>0.1407356579142841</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02814285531085284</v>
+        <v>0.02907696482958226</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3681613365.603541</v>
+        <v>4501874483.343544</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07780595189002132</v>
+        <v>0.1061296647095124</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02778990678063564</v>
+        <v>0.02478396370296294</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4787774434.959015</v>
+        <v>5064126729.270915</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1328510138904318</v>
+        <v>0.1140861521851248</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02077518648526861</v>
+        <v>0.03056477498674247</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4562993331.151778</v>
+        <v>5169438232.368094</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1568322433863948</v>
+        <v>0.1864423576542647</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02472302455412561</v>
+        <v>0.02603703702757594</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2485585877.283002</v>
+        <v>1824678720.504991</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1125239069873007</v>
+        <v>0.128010722183025</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03082130177039299</v>
+        <v>0.03059847021978647</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2595884306.516638</v>
+        <v>2528547525.030249</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08368293905556033</v>
+        <v>0.1041156917525462</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03783444442659509</v>
+        <v>0.03798670141825948</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3613809585.92044</v>
+        <v>2451490571.740303</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1237308941329217</v>
+        <v>0.1239952328774923</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05217017262725566</v>
+        <v>0.03842248758614217</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2009284785.731022</v>
+        <v>2062028786.88015</v>
       </c>
       <c r="F86" t="n">
-        <v>0.150740650508366</v>
+        <v>0.1107401989127103</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02554907326186851</v>
+        <v>0.02084258511612303</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1052558610.911875</v>
+        <v>998376841.7344159</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1821277829275915</v>
+        <v>0.1487814826308934</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03163985238081005</v>
+        <v>0.03890712314103134</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3017883048.532713</v>
+        <v>2642242683.384805</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1692983448158694</v>
+        <v>0.1575674301888054</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02863228823223568</v>
+        <v>0.02505318270657258</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2468304487.994601</v>
+        <v>2970524154.890777</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201009608880223</v>
+        <v>0.1201162459881046</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02648080045547532</v>
+        <v>0.03864574696067579</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1318253038.681</v>
+        <v>2122059142.709942</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1340109465754832</v>
+        <v>0.1056945314113601</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04242677014085289</v>
+        <v>0.04481985113652063</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1569940678.874067</v>
+        <v>1388586851.839922</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1677771044928381</v>
+        <v>0.143964824722252</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0387098854198477</v>
+        <v>0.06057899642348467</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2081642735.654073</v>
+        <v>2849166605.169368</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09751790362800652</v>
+        <v>0.1012918694328913</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0286953750867441</v>
+        <v>0.03688793974147716</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4957363143.05651</v>
+        <v>4525820178.723998</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1320738459107285</v>
+        <v>0.08949482064207907</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04122841288805149</v>
+        <v>0.04420395558576652</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2388854331.410036</v>
+        <v>1638685567.229204</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1438898163840349</v>
+        <v>0.1411611772559788</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0431319891385188</v>
+        <v>0.026803428885834</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2347516345.1616</v>
+        <v>2529500364.878345</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08578314308614081</v>
+        <v>0.09100771986129869</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04541913954692562</v>
+        <v>0.03761280645889096</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1979152915.709653</v>
+        <v>2396685193.817129</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1244365128576909</v>
+        <v>0.1344454545664144</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04588909816444492</v>
+        <v>0.04735854186474749</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4355280571.147921</v>
+        <v>3779454784.300675</v>
       </c>
       <c r="F97" t="n">
-        <v>0.118754130407176</v>
+        <v>0.1282921350803203</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02315991819676543</v>
+        <v>0.02676909401348336</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3885531750.437398</v>
+        <v>3526357874.00089</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0785128739351162</v>
+        <v>0.1227723078072718</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02362538908685764</v>
+        <v>0.03174071744268027</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2950387892.85378</v>
+        <v>3401320701.796262</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1098634065934751</v>
+        <v>0.1353022860912364</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02597191107080877</v>
+        <v>0.02212342101031292</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3639498377.066818</v>
+        <v>4038557677.284997</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1135278106524155</v>
+        <v>0.1745015956977073</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02750681137369297</v>
+        <v>0.02489354292872117</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3504960896.520679</v>
+        <v>2316041475.999934</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1392358559029453</v>
+        <v>0.1624765621667266</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03791727062394774</v>
+        <v>0.0578115279334322</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_49.xlsx
+++ b/output/fit_clients/fit_round_49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2326835792.699442</v>
+        <v>1801637269.616055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09168890059778484</v>
+        <v>0.1094736517181987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03744522089226916</v>
+        <v>0.042997405363967</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1724996184.428909</v>
+        <v>2364855250.874724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1571487344218627</v>
+        <v>0.1367402345994737</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0438388406312195</v>
+        <v>0.04280028229058539</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5052897244.404228</v>
+        <v>4598063371.838143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.103515234280749</v>
+        <v>0.1558117066154097</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03597905797983301</v>
+        <v>0.02787936082064359</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>209.8410449634327</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3054949472.607822</v>
+        <v>2973394595.345758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0944164326261672</v>
+        <v>0.06726272175342002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04736189154691279</v>
+        <v>0.04101506054468938</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48</v>
+      </c>
+      <c r="K5" t="n">
+        <v>127.8431403138882</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2440224416.044164</v>
+        <v>2701927458.926857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09044268280058244</v>
+        <v>0.1315221328763832</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04812380596530724</v>
+        <v>0.03881431656208122</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2493497641.409085</v>
+        <v>2852229376.855851</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06827439095379227</v>
+        <v>0.08599822085665186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03755211050799805</v>
+        <v>0.04018907674107473</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3062673885.50336</v>
+        <v>3810614841.155158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1938340268958488</v>
+        <v>0.1356849963861527</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03128423740661919</v>
+        <v>0.02310746292479942</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2126903215.771671</v>
+        <v>1928416876.32425</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1634291179669854</v>
+        <v>0.1347818858850546</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03307359419699632</v>
+        <v>0.02500619496073372</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4595012324.472332</v>
+        <v>4800492152.395094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1900302699760199</v>
+        <v>0.1399898176886888</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0476055214039767</v>
+        <v>0.04321618787143724</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>49</v>
+      </c>
+      <c r="K10" t="n">
+        <v>232.3588008940806</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2682089519.589441</v>
+        <v>3409342649.641261</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1732390093423508</v>
+        <v>0.1853605181036132</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03408190021942743</v>
+        <v>0.04857126220750582</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>172.163535415846</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2379737972.366796</v>
+        <v>2477884058.367095</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1507088024964938</v>
+        <v>0.1287258951424002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03751204443747518</v>
+        <v>0.04354475521574563</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3882031368.972033</v>
+        <v>4078647401.541749</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09606089244636</v>
+        <v>0.1012343022701144</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02013406282367873</v>
+        <v>0.0190167356814349</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>49</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2807891345.202875</v>
+        <v>2374081641.058682</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1452536033026997</v>
+        <v>0.1269738584415372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03025990936161569</v>
+        <v>0.03528296926894676</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1570450406.232232</v>
+        <v>1482565088.73066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09613880932514288</v>
+        <v>0.0833624670811217</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03178000085617388</v>
+        <v>0.04278518281761216</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2407979862.387907</v>
+        <v>1783755904.783362</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08538868451767888</v>
+        <v>0.09270059678949587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04217221719474874</v>
+        <v>0.04506482573490386</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4887862584.813861</v>
+        <v>3561146854.957186</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1088604942289158</v>
+        <v>0.1126157606530965</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03273629662712799</v>
+        <v>0.04612499408370908</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>49</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3103617245.32163</v>
+        <v>3607339438.298412</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1651326390141282</v>
+        <v>0.1288728938234924</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02384722785496987</v>
+        <v>0.02796997985540629</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>49</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1118353851.417938</v>
+        <v>844232874.5600787</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1580788851453314</v>
+        <v>0.1366400542975274</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01691413328788297</v>
+        <v>0.01739262969528946</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2650569475.545459</v>
+        <v>1775533040.01227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1375851085197347</v>
+        <v>0.1559270596356917</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03042625067300746</v>
+        <v>0.02893432656992762</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1859139171.788371</v>
+        <v>2019144469.559752</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08111165390706666</v>
+        <v>0.0816308782075648</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03763467373122992</v>
+        <v>0.03275369405945835</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2684560759.879458</v>
+        <v>2905552413.498075</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1289319172347365</v>
+        <v>0.09957900711637384</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05397939529036287</v>
+        <v>0.03873484954747509</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1436071305.682027</v>
+        <v>1399425591.423423</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1267179010085383</v>
+        <v>0.1191109704932101</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0440241596548122</v>
+        <v>0.03835395803548355</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2984829550.247304</v>
+        <v>3758500588.702374</v>
       </c>
       <c r="F24" t="n">
-        <v>0.142485871762141</v>
+        <v>0.1072215641122336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03407280225949297</v>
+        <v>0.0376637518518247</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>49</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1141797539.850253</v>
+        <v>1452629874.521098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1031452742124313</v>
+        <v>0.1107274179256526</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02677094670206431</v>
+        <v>0.02432502982840697</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1220558973.049417</v>
+        <v>1338254436.967471</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09007455628716539</v>
+        <v>0.1100051847573449</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02580927624858453</v>
+        <v>0.03687544628412513</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3477885131.203868</v>
+        <v>3256179702.64263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1301180386910416</v>
+        <v>0.1055766672738929</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0240234495597541</v>
+        <v>0.02018090071864839</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>47</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3432571896.439934</v>
+        <v>2639154568.58059</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1281758049118012</v>
+        <v>0.1093006110859116</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03493115034407183</v>
+        <v>0.03137237168599641</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>47</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5111429591.582981</v>
+        <v>5805076913.729527</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1208804781846112</v>
+        <v>0.145133991578632</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0456307060822271</v>
+        <v>0.03824981800166198</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>44</v>
+      </c>
+      <c r="J29" t="n">
+        <v>49</v>
+      </c>
+      <c r="K29" t="n">
+        <v>237.8261289547701</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2059510936.523673</v>
+        <v>2123713367.633065</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1001901341871072</v>
+        <v>0.1066238632094312</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03599021391987879</v>
+        <v>0.03478656908115987</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>972448225.6768645</v>
+        <v>903839554.3299103</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08453199141655615</v>
+        <v>0.08313197997722464</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05256609176068482</v>
+        <v>0.04681912170629995</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1426267880.8901</v>
+        <v>1801032440.236072</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1082804114576122</v>
+        <v>0.09809761114728766</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03861138705539863</v>
+        <v>0.02358333378150551</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2894800169.63191</v>
+        <v>2128546806.654695</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2051531209771932</v>
+        <v>0.1739242539146549</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0405670270059304</v>
+        <v>0.04222938643653505</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1490721242.926764</v>
+        <v>1324092003.460056</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1061349144706848</v>
+        <v>0.080079323517548</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01886453164939409</v>
+        <v>0.02478222688201086</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1001013712.969799</v>
+        <v>986228120.4603289</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09811511211391845</v>
+        <v>0.09526150903297162</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0289873016674225</v>
+        <v>0.0417466429684708</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2020658616.196037</v>
+        <v>3248341238.641839</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1612964338873902</v>
+        <v>0.1275467955943676</v>
       </c>
       <c r="G36" t="n">
-        <v>0.018131873018613</v>
+        <v>0.02486123413878135</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2245249543.059432</v>
+        <v>1921762853.246596</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07377695082465394</v>
+        <v>0.07411772994075011</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0312633384146658</v>
+        <v>0.03339844326672322</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1509184052.702981</v>
+        <v>1388131437.288465</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07459805855089685</v>
+        <v>0.1000436670346801</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02825509360632023</v>
+        <v>0.03544359192036451</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1993625943.915712</v>
+        <v>2129357377.406</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1590004858364582</v>
+        <v>0.1601142233704245</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02041348151321648</v>
+        <v>0.02197121198989109</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1812606957.083511</v>
+        <v>1138398669.406414</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1251713452526013</v>
+        <v>0.1486284443794126</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04299119448749528</v>
+        <v>0.04419339287544576</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2455245921.478399</v>
+        <v>2164095381.976478</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1285742567491348</v>
+        <v>0.1457330656971628</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04274082897866294</v>
+        <v>0.04012107378558937</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2941266659.001921</v>
+        <v>3601214968.620863</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09153761124045642</v>
+        <v>0.07979667030078615</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03697677934584944</v>
+        <v>0.04065385864584478</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17</v>
+      </c>
+      <c r="J42" t="n">
+        <v>48</v>
+      </c>
+      <c r="K42" t="n">
+        <v>173.8605446085748</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1876501347.228592</v>
+        <v>2452404152.165473</v>
       </c>
       <c r="F43" t="n">
-        <v>0.146429121619649</v>
+        <v>0.1912043904810873</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02210417515604146</v>
+        <v>0.02187910382871247</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2035541370.156966</v>
+        <v>2311574285.311642</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06894729957018798</v>
+        <v>0.09958018340309083</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02579971433002292</v>
+        <v>0.02362716586090857</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1756388007.866019</v>
+        <v>1788423593.032575</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1246387423744548</v>
+        <v>0.1504729276592861</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05217282720597705</v>
+        <v>0.05148612719334943</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4074558896.217843</v>
+        <v>4311779223.984658</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1504388771585677</v>
+        <v>0.1419098002492673</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04068315785376779</v>
+        <v>0.05654610540954257</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="n">
+        <v>48</v>
+      </c>
+      <c r="K46" t="n">
+        <v>206.8793444898271</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4484462626.027202</v>
+        <v>4153391951.663036</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1492278598859081</v>
+        <v>0.1538356930821158</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04697129538915205</v>
+        <v>0.04213602542631037</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
+      <c r="J47" t="n">
+        <v>48</v>
+      </c>
+      <c r="K47" t="n">
+        <v>178.217522120622</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4481156208.045185</v>
+        <v>3240668296.504661</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1080582134567659</v>
+        <v>0.08549910206894865</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03026289077101014</v>
+        <v>0.02395648894180834</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>48</v>
+      </c>
+      <c r="K48" t="n">
+        <v>141.8787747368555</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1376158038.030734</v>
+        <v>1867693770.311125</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1775310762984176</v>
+        <v>0.1419134061256321</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03397437173598303</v>
+        <v>0.03491187918387073</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3967119974.443714</v>
+        <v>2585525669.116426</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1198499199739104</v>
+        <v>0.1681622543076484</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04891375791685829</v>
+        <v>0.05024277393381965</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>46</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1194750961.21757</v>
+        <v>1464243079.206565</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1464904038126073</v>
+        <v>0.1451258414415861</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05191821622882999</v>
+        <v>0.04255127432202228</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3618232448.342927</v>
+        <v>5301145629.668326</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09063936181045891</v>
+        <v>0.1052356250962236</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0449086409273857</v>
+        <v>0.0379032504254559</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>37</v>
+      </c>
+      <c r="J52" t="n">
+        <v>49</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3319285398.779437</v>
+        <v>2913096060.54077</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1929328755608614</v>
+        <v>0.1515051366094725</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0236433679467104</v>
+        <v>0.03196285907180942</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4919561382.117487</v>
+        <v>4209685213.028251</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1572205395893281</v>
+        <v>0.1383677043914816</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03867432593243404</v>
+        <v>0.05163958852638842</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>21</v>
+      </c>
+      <c r="J54" t="n">
+        <v>49</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3088316312.08034</v>
+        <v>3115340517.973979</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1980980958985508</v>
+        <v>0.2156018742509347</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0253017691505892</v>
+        <v>0.03173271347176847</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>23</v>
+      </c>
+      <c r="J55" t="n">
+        <v>47</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1178609715.688389</v>
+        <v>1157780156.692567</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154407918561287</v>
+        <v>0.1565572737093554</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05091272831150179</v>
+        <v>0.04103851392646452</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4582453103.015389</v>
+        <v>4390044671.332346</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1421241599589438</v>
+        <v>0.1692516052450953</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01742484260806217</v>
+        <v>0.02028465852042353</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>49</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1811219589.767133</v>
+        <v>1613721354.433471</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1959364610096295</v>
+        <v>0.1231158242815485</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0366524576056425</v>
+        <v>0.0256844617588944</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4600960288.274183</v>
+        <v>3839505667.009195</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1268325543089219</v>
+        <v>0.1305966154727599</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05000204382303667</v>
+        <v>0.03967037050884795</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>49</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2552521341.55925</v>
+        <v>2564812255.040541</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1368870187519289</v>
+        <v>0.1653900427766543</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03349426497948896</v>
+        <v>0.02617032913320377</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>47</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2702910932.040499</v>
+        <v>2512897801.797272</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1804741402893193</v>
+        <v>0.1424243375576428</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02914977908570435</v>
+        <v>0.02346087591796146</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1686958638.903036</v>
+        <v>1545906704.813499</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1537809500381412</v>
+        <v>0.1499866136788213</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03073050052810124</v>
+        <v>0.03726056668146442</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4213182890.822614</v>
+        <v>3488616721.880704</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08206470659067983</v>
+        <v>0.07915539507330722</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0449416996001316</v>
+        <v>0.04236159578949608</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>48</v>
+      </c>
+      <c r="K63" t="n">
+        <v>152.9112763196524</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5078501019.120489</v>
+        <v>3578939018.940982</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1899176354503513</v>
+        <v>0.1336747383764741</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02970798973058166</v>
+        <v>0.02235629809030756</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>24</v>
+      </c>
+      <c r="J64" t="n">
+        <v>49</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4698879027.320616</v>
+        <v>3866229950.814226</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1091659005983784</v>
+        <v>0.1629655883430543</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02174239291961224</v>
+        <v>0.03209273553782072</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>41</v>
+      </c>
+      <c r="J65" t="n">
+        <v>48</v>
+      </c>
+      <c r="K65" t="n">
+        <v>206.4377487935515</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3776587102.414526</v>
+        <v>4174164823.992136</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1053707652482935</v>
+        <v>0.1430000525420723</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04500021920630527</v>
+        <v>0.04189913683072614</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>24</v>
+      </c>
+      <c r="J66" t="n">
+        <v>49</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2591597755.233215</v>
+        <v>2831907822.288023</v>
       </c>
       <c r="F67" t="n">
-        <v>0.073848454970406</v>
+        <v>0.1000315244204824</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03872729207748545</v>
+        <v>0.04823238765684152</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2833,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4163911159.124377</v>
+        <v>4260498004.619853</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1087403904790338</v>
+        <v>0.1477996891652003</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03962974743304237</v>
+        <v>0.05076722706805267</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>24</v>
+      </c>
+      <c r="J68" t="n">
+        <v>49</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2323022147.611754</v>
+        <v>1916917461.572755</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1583136942981254</v>
+        <v>0.1690415225626369</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04799716314215995</v>
+        <v>0.05798821612339496</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2896436760.732585</v>
+        <v>3192858909.820426</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06809664609434438</v>
+        <v>0.09481746750081639</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03940368877046765</v>
+        <v>0.04607608532598817</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2938,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3959855720.278933</v>
+        <v>5409010215.516219</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1475925491852245</v>
+        <v>0.1507883263190372</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02945586129989564</v>
+        <v>0.02639295897026711</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>40</v>
+      </c>
+      <c r="J71" t="n">
+        <v>49</v>
+      </c>
+      <c r="K71" t="n">
+        <v>210.339602197293</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1967142646.464071</v>
+        <v>1881068505.174182</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1013684651465797</v>
+        <v>0.08452999742101105</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03892476303635379</v>
+        <v>0.03514294393494988</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2786911284.297987</v>
+        <v>3007664590.502564</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08490152562062582</v>
+        <v>0.07227292925703589</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04728682650192937</v>
+        <v>0.05180481852663137</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3045,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3598718455.39958</v>
+        <v>3976011485.063345</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1742628030554771</v>
+        <v>0.1166406534669518</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02864428754465006</v>
+        <v>0.02343558284121486</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14</v>
+      </c>
+      <c r="J74" t="n">
+        <v>49</v>
+      </c>
+      <c r="K74" t="n">
+        <v>208.6433012288493</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1813985802.141239</v>
+        <v>1613852002.975171</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1186062761116955</v>
+        <v>0.1251721489204036</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02817421004987508</v>
+        <v>0.03610763597287427</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4733432673.224866</v>
+        <v>3890826806.024489</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09560123544315262</v>
+        <v>0.1042788119726435</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02146056285178402</v>
+        <v>0.03067999795438045</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>23</v>
+      </c>
+      <c r="J76" t="n">
+        <v>48</v>
+      </c>
+      <c r="K76" t="n">
+        <v>167.5834954227005</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1902982351.067095</v>
+        <v>1512980992.241748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1678816350969153</v>
+        <v>0.1444295956262161</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02052091701617028</v>
+        <v>0.02100941723217053</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4655023247.394592</v>
+        <v>3972305478.787854</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1143395106529701</v>
+        <v>0.08409847107910176</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04946285717198638</v>
+        <v>0.04510095450460135</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>21</v>
+      </c>
+      <c r="J78" t="n">
+        <v>48</v>
+      </c>
+      <c r="K78" t="n">
+        <v>207.0680768384398</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1726378380.609674</v>
+        <v>1408130506.856852</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1407356579142841</v>
+        <v>0.1771778902739796</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02907696482958226</v>
+        <v>0.03405319498133275</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4501874483.343544</v>
+        <v>5312951823.771645</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1061296647095124</v>
+        <v>0.1051319710305415</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02478396370296294</v>
+        <v>0.02651090590410605</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>23</v>
+      </c>
+      <c r="J80" t="n">
+        <v>49</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5064126729.270915</v>
+        <v>4660009239.098759</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1140861521851248</v>
+        <v>0.1084789088643938</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03056477498674247</v>
+        <v>0.03144315756495561</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21</v>
+      </c>
+      <c r="J81" t="n">
+        <v>49</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3331,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5169438232.368094</v>
+        <v>3497060158.104488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1864423576542647</v>
+        <v>0.1407084939930297</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02603703702757594</v>
+        <v>0.02895831919512283</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>28</v>
+      </c>
+      <c r="J82" t="n">
+        <v>47</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3360,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1824678720.504991</v>
+        <v>1732030877.32544</v>
       </c>
       <c r="F83" t="n">
-        <v>0.128010722183025</v>
+        <v>0.120750077417548</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03059847021978647</v>
+        <v>0.03376667990637031</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3395,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2528547525.030249</v>
+        <v>1681465282.438652</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1041156917525462</v>
+        <v>0.0970540060037957</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03798670141825948</v>
+        <v>0.03198332532233273</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3430,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2451490571.740303</v>
+        <v>2952760931.045977</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1239952328774923</v>
+        <v>0.1672802526916908</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03842248758614217</v>
+        <v>0.03456383388950135</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>48</v>
+      </c>
+      <c r="K85" t="n">
+        <v>126.6574851738181</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2062028786.88015</v>
+        <v>1726603560.849294</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1107401989127103</v>
+        <v>0.1499749979407697</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02084258511612303</v>
+        <v>0.02503688535719887</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>998376841.7344159</v>
+        <v>1088312918.194775</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1487814826308934</v>
+        <v>0.151385767072211</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03890712314103134</v>
+        <v>0.03982865970357505</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2642242683.384805</v>
+        <v>2440315092.894124</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1575674301888054</v>
+        <v>0.1777523188971168</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02505318270657258</v>
+        <v>0.03078797848724058</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3578,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2970524154.890777</v>
+        <v>2271182564.329798</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1201162459881046</v>
+        <v>0.100011522200209</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03864574696067579</v>
+        <v>0.04137411155172372</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3607,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2122059142.709942</v>
+        <v>2051066553.193741</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1056945314113601</v>
+        <v>0.1149917345090915</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04481985113652063</v>
+        <v>0.04897728721026336</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3642,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1388586851.839922</v>
+        <v>1880310098.263859</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143964824722252</v>
+        <v>0.1928052615610501</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06057899642348467</v>
+        <v>0.04466361293433022</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3677,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2849166605.169368</v>
+        <v>2242353949.552255</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1012918694328913</v>
+        <v>0.08459271316171363</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03688793974147716</v>
+        <v>0.03232178240262881</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3712,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4525820178.723998</v>
+        <v>4685170331.524277</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08949482064207907</v>
+        <v>0.1249260348912949</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04420395558576652</v>
+        <v>0.04412380983139141</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" t="n">
+        <v>48</v>
+      </c>
+      <c r="K93" t="n">
+        <v>192.4419832701591</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1638685567.229204</v>
+        <v>1986809589.205933</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1411611772559788</v>
+        <v>0.105066854776407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.026803428885834</v>
+        <v>0.0325182644292776</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2529500364.878345</v>
+        <v>2086293734.262162</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09100771986129869</v>
+        <v>0.1128925626702552</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03761280645889096</v>
+        <v>0.0359823808063597</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2396685193.817129</v>
+        <v>2117404189.096996</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1344454545664144</v>
+        <v>0.1138396043867674</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04735854186474749</v>
+        <v>0.03084541444387078</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3779454784.300675</v>
+        <v>4103494515.149262</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1282921350803203</v>
+        <v>0.1608844218861603</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02676909401348336</v>
+        <v>0.01756229552922145</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24</v>
+      </c>
+      <c r="J97" t="n">
+        <v>48</v>
+      </c>
+      <c r="K97" t="n">
+        <v>205.8951704107594</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3526357874.00089</v>
+        <v>3581473196.946853</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1227723078072718</v>
+        <v>0.08641895494385771</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03174071744268027</v>
+        <v>0.03292579519517703</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>48</v>
+      </c>
+      <c r="K98" t="n">
+        <v>154.4130415201554</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3401320701.796262</v>
+        <v>2385796892.520616</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1353022860912364</v>
+        <v>0.1055755511288488</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02212342101031292</v>
+        <v>0.03549037935467018</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4038557677.284997</v>
+        <v>3968672769.635877</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1745015956977073</v>
+        <v>0.1639262337210801</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02489354292872117</v>
+        <v>0.02297768987604301</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="n">
+        <v>49</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2316041475.999934</v>
+        <v>3105271458.147042</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1624765621667266</v>
+        <v>0.2031273575067254</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0578115279334322</v>
+        <v>0.04273815359890937</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="n">
+        <v>136.0027993966957</v>
       </c>
     </row>
   </sheetData>
